--- a/StructureDefinition-DDCCCountryOfVaccination.xlsx
+++ b/StructureDefinition-DDCCCountryOfVaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:03:44+00:00</t>
+    <t>2021-12-10T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCCountryOfVaccination.xlsx
+++ b/StructureDefinition-DDCCCountryOfVaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
